--- a/biology/Zoologie/Agreste_de_Kudrna/Agreste_de_Kudrna.xlsx
+++ b/biology/Zoologie/Agreste_de_Kudrna/Agreste_de_Kudrna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia volgensis
 L'Agreste de Kudrna (Hipparchia volgensis) est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Hipparchia.
@@ -512,10 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Hipparchia volgensis par Georgij A. Mazochin-Porschnjakov (d) en 1952.
-Synonymes : Satyrus volgensis Mazochin-Porshnyakov, 1952[2].
+Synonymes : Satyrus volgensis Mazochin-Porshnyakov, 1952.
 Pour certains c'est Hipparchia semelle volgensis, une sous-espèce d' Hipparchia semele proche d'Hipparchia pellucida
 </t>
         </is>
@@ -545,14 +559,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (17 juin 2021) :
 sous-espèce Hipparchia volgensis delattini Kudrna, 1975
-sous-espèce Hipparchia volgensis volgensis (Mazochin-Porshnjakov, 1952)
-Noms vernaculaires
-L'Agreste de Kudrna se nomme Delattin's Grayling en anglais et Βαλκανική ιππάρχια en grec[3],[4].
-</t>
+sous-espèce Hipparchia volgensis volgensis (Mazochin-Porshnjakov, 1952)</t>
         </is>
       </c>
     </row>
@@ -577,10 +590,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Kudrna se nomme Delattin's Grayling en anglais et Βαλκανική ιππάρχια en grec,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agreste de Kudrna est de couleur marron avec des taches jaune orangé disposées en bande submarginale plus marquée chez la femelle, plus discrète chez le mâle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou très discrètement pupillés aux antérieures et un très petit aux postérieures. 
 Le revers des antérieures est  jaune orangé avec une bande jaune plus clair qui porte deux ocelles noirs alors que les postérieures sont marbrées de marron et de blanc.
@@ -588,40 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Agreste_de_Kudrna</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agreste_de_Kudrna</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste de Kudrna vole en une génération entre juin et août[5].
-Plantes hôtes
-Ses plantes hôtes sont diverses des Gramineae.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -643,15 +661,126 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Kudrna vole en une génération entre juin et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses des Gramineae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'Agreste de Kudrna est présent dans le Sud-Est de l'Europe, en Albanie, en Macédoine, en Bulgarie, en Grèce et dans la partie européenne de la Turquie[5].
-Biotope
-Il réside dans des vallons rocheux, des lieux buissonneux.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Kudrna est présent dans le Sud-Est de l'Europe, en Albanie, en Macédoine, en Bulgarie, en Grèce et dans la partie européenne de la Turquie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Kudrna</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des vallons rocheux, des lieux buissonneux.
+</t>
         </is>
       </c>
     </row>
